--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_ngrams.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_ngrams.xlsx
@@ -11,16 +11,17 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="826">
   <si>
     <t>n</t>
   </si>
@@ -1198,33 +1199,378 @@
     <t>warrant direct violation of the</t>
   </si>
   <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>lives</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>israel</t>
+  </si>
+  <si>
+    <t>iran</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>willing</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>political experience</t>
+  </si>
+  <si>
+    <t>know that</t>
+  </si>
+  <si>
+    <t>to stand</t>
+  </si>
+  <si>
+    <t>my life</t>
+  </si>
+  <si>
+    <t>my family</t>
+  </si>
+  <si>
+    <t>stand with</t>
+  </si>
+  <si>
+    <t>like to</t>
+  </si>
+  <si>
+    <t>also know</t>
+  </si>
+  <si>
+    <t>your skin</t>
+  </si>
+  <si>
+    <t>willing to</t>
+  </si>
+  <si>
+    <t>white house</t>
+  </si>
+  <si>
+    <t>were willing</t>
+  </si>
+  <si>
+    <t>we stand</t>
+  </si>
+  <si>
+    <t>we must</t>
+  </si>
+  <si>
+    <t>warned us</t>
+  </si>
+  <si>
+    <t>wanted to</t>
+  </si>
+  <si>
+    <t>trump money</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <t>to risk</t>
+  </si>
+  <si>
+    <t>your skin color</t>
+  </si>
+  <si>
+    <t>when it comes</t>
+  </si>
+  <si>
+    <t>what is happening</t>
+  </si>
+  <si>
+    <t>were willing to</t>
+  </si>
+  <si>
+    <t>to risk all</t>
+  </si>
+  <si>
+    <t>to deal with</t>
+  </si>
+  <si>
+    <t>they were willing</t>
+  </si>
+  <si>
+    <t>the white house</t>
+  </si>
+  <si>
+    <t>the jewish people</t>
+  </si>
+  <si>
+    <t>stand with the</t>
+  </si>
+  <si>
+    <t>see what is</t>
+  </si>
+  <si>
+    <t>one of the</t>
+  </si>
+  <si>
+    <t>not to stand</t>
+  </si>
+  <si>
+    <t>no political experience</t>
+  </si>
+  <si>
+    <t>know what it</t>
+  </si>
+  <si>
+    <t>it is like</t>
+  </si>
+  <si>
+    <t>it comes to</t>
+  </si>
+  <si>
+    <t>is like to</t>
+  </si>
+  <si>
+    <t>he warned us</t>
+  </si>
+  <si>
+    <t>choose not to</t>
+  </si>
+  <si>
+    <t>when it comes to</t>
+  </si>
+  <si>
+    <t>what it is like</t>
+  </si>
+  <si>
+    <t>they were willing to</t>
+  </si>
+  <si>
+    <t>see what is happening</t>
+  </si>
+  <si>
+    <t>me and my family</t>
+  </si>
+  <si>
+    <t>know what it is</t>
+  </si>
+  <si>
+    <t>it is like to</t>
+  </si>
+  <si>
+    <t>your tax dollars through</t>
+  </si>
+  <si>
+    <t>your skin color or</t>
+  </si>
+  <si>
+    <t>your skin color also</t>
+  </si>
+  <si>
+    <t>your shoes do not</t>
+  </si>
+  <si>
+    <t>your questions wanted to</t>
+  </si>
+  <si>
+    <t>your pain well have</t>
+  </si>
+  <si>
+    <t>your heart in the</t>
+  </si>
+  <si>
+    <t>your candidate thank you</t>
+  </si>
+  <si>
+    <t>you want is political</t>
+  </si>
+  <si>
+    <t>you see this is</t>
+  </si>
+  <si>
+    <t>you peel back the</t>
+  </si>
+  <si>
+    <t>you live on know</t>
+  </si>
+  <si>
+    <t>you have neither donald</t>
+  </si>
+  <si>
+    <t>what it is like to</t>
+  </si>
+  <si>
+    <t>know what it is like</t>
+  </si>
+  <si>
+    <t>your tax dollars through the</t>
+  </si>
+  <si>
+    <t>your skin color or continent</t>
+  </si>
+  <si>
+    <t>your skin color also know</t>
+  </si>
+  <si>
+    <t>your shoes do not have</t>
+  </si>
+  <si>
+    <t>your questions wanted to touch</t>
+  </si>
+  <si>
+    <t>your pain well have walked</t>
+  </si>
+  <si>
+    <t>your heart in the quiet</t>
+  </si>
+  <si>
+    <t>your candidate thank you for</t>
+  </si>
+  <si>
+    <t>you want is political experience</t>
+  </si>
+  <si>
+    <t>you see this is how</t>
+  </si>
+  <si>
+    <t>you peel back the skin</t>
+  </si>
+  <si>
+    <t>you live on know that</t>
+  </si>
+  <si>
+    <t>you have neither donald trump</t>
+  </si>
+  <si>
+    <t>you for staying up with</t>
+  </si>
+  <si>
+    <t>you count me and my</t>
+  </si>
+  <si>
+    <t>you as mordecai we are</t>
+  </si>
+  <si>
+    <t>you are not allowed to</t>
+  </si>
+  <si>
+    <t>you are absolutely right have</t>
+  </si>
+  <si>
     <t>hillary</t>
   </si>
   <si>
     <t>clinton</t>
   </si>
   <si>
-    <t>trump</t>
-  </si>
-  <si>
     <t>last</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
     <t>winning</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>thousands</t>
   </si>
   <si>
@@ -1285,9 +1631,6 @@
     <t>serious</t>
   </si>
   <si>
-    <t>said</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -1306,9 +1649,6 @@
     <t>new</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
     <t>missed</t>
   </si>
   <si>
@@ -1318,9 +1658,6 @@
     <t>hillary clinton</t>
   </si>
   <si>
-    <t>white house</t>
-  </si>
-  <si>
     <t>thousands of</t>
   </si>
   <si>
@@ -1372,9 +1709,6 @@
     <t>in landslide</t>
   </si>
   <si>
-    <t>the white house</t>
-  </si>
-  <si>
     <t>veterans affairs hearings</t>
   </si>
   <si>
@@ -1561,9 +1895,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>must</t>
-  </si>
-  <si>
     <t>moon</t>
   </si>
   <si>
@@ -1576,9 +1907,6 @@
     <t>news</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -1600,9 +1928,6 @@
     <t>tax</t>
   </si>
   <si>
-    <t>stand</t>
-  </si>
-  <si>
     <t>space</t>
   </si>
   <si>
@@ -1621,9 +1946,6 @@
     <t>national</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>landings</t>
   </si>
   <si>
@@ -1894,9 +2216,6 @@
     <t>working</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -1909,15 +2228,9 @@
     <t>number</t>
   </si>
   <si>
-    <t>nation</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>million</t>
   </si>
   <si>
@@ -1988,9 +2301,6 @@
   </si>
   <si>
     <t>we want</t>
-  </si>
-  <si>
-    <t>we stand</t>
   </si>
   <si>
     <t>water while</t>
@@ -7111,7 +7421,7 @@
         <v>392</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7122,7 +7432,7 @@
         <v>393</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7133,7 +7443,7 @@
         <v>394</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7141,10 +7451,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7152,10 +7462,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7163,10 +7473,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
         <v>8</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7174,10 +7484,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7185,10 +7495,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7196,10 +7506,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7207,10 +7517,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>396</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7218,10 +7528,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7232,7 +7542,7 @@
         <v>398</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7243,7 +7553,7 @@
         <v>399</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7251,10 +7561,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>148</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7262,10 +7572,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7273,10 +7583,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7284,10 +7594,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7295,10 +7605,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7306,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -7317,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>404</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -7328,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>405</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -7375,7 +7685,7 @@
         <v>409</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7386,7 +7696,7 @@
         <v>410</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7397,7 +7707,7 @@
         <v>411</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7405,10 +7715,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>412</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7416,10 +7726,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>413</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7427,10 +7737,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7438,10 +7748,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7449,10 +7759,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7460,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7471,10 +7781,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7482,10 +7792,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7493,10 +7803,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7504,10 +7814,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7515,10 +7825,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7526,10 +7836,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>162</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7537,10 +7847,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7548,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>421</v>
+        <v>285</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -7559,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -7570,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -7581,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -7592,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -7603,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -7614,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -7625,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -7636,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -7647,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>153</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -7672,7 +7982,7 @@
         <v>432</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7683,7 +7993,7 @@
         <v>433</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7694,7 +8004,7 @@
         <v>434</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7702,10 +8012,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>435</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7713,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -7724,10 +8034,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7735,10 +8045,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7746,7 +8056,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -7757,7 +8067,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -7768,7 +8078,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -7779,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -7790,7 +8100,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -7801,7 +8111,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -7812,7 +8122,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -7823,7 +8133,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -7834,7 +8144,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -7845,7 +8155,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -7856,7 +8166,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -7867,7 +8177,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -7878,10 +8188,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7889,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7900,7 +8210,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7911,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7922,7 +8232,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7933,10 +8243,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7944,10 +8254,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7955,10 +8265,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7966,10 +8276,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7977,10 +8287,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7988,10 +8298,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7999,10 +8309,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8010,10 +8320,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8021,10 +8331,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8032,10 +8342,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8043,10 +8353,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8054,10 +8364,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8065,10 +8375,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8076,10 +8386,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8087,10 +8397,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8098,7 +8408,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8109,7 +8419,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8120,10 +8430,10 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8131,10 +8441,10 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -8142,10 +8452,10 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8153,10 +8463,10 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8164,10 +8474,10 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -8175,7 +8485,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8186,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8197,7 +8507,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8208,7 +8518,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8219,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8230,7 +8540,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8241,7 +8551,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8252,7 +8562,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8263,7 +8573,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8274,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8285,7 +8595,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8296,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8307,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8318,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -8329,10 +8639,10 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8340,7 +8650,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8351,7 +8661,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8362,7 +8672,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8373,7 +8683,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8384,7 +8694,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8395,7 +8705,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8406,7 +8716,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8417,7 +8727,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -8428,7 +8738,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -8439,7 +8749,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -8450,7 +8760,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -8461,7 +8771,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -8472,7 +8782,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -8483,7 +8793,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -8494,7 +8804,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -8505,7 +8815,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -8516,7 +8826,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -8527,7 +8837,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -8562,10 +8872,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>511</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8573,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>512</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8584,10 +8894,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>428</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8595,10 +8905,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8606,10 +8916,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>404</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8617,10 +8927,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8628,10 +8938,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8639,10 +8949,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8650,10 +8960,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8661,10 +8971,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8672,10 +8982,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8683,10 +8993,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8694,10 +9004,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8705,10 +9015,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>516</v>
+        <v>430</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8716,10 +9026,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>516</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8727,10 +9037,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>517</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8738,10 +9048,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8749,10 +9059,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8760,10 +9070,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>520</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8771,10 +9081,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8782,10 +9092,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>394</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8793,10 +9103,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>521</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8804,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8815,10 +9125,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8826,10 +9136,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8837,10 +9147,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>428</v>
+        <v>525</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8848,10 +9158,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8859,10 +9169,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8870,10 +9180,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8881,10 +9191,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>527</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8892,10 +9202,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8903,10 +9213,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8914,10 +9224,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8925,10 +9235,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8936,10 +9246,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8947,10 +9257,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>532</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8958,10 +9268,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8969,10 +9279,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>418</v>
+        <v>534</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8980,10 +9290,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>526</v>
+        <v>307</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8991,10 +9301,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9002,10 +9312,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9013,10 +9323,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9024,10 +9334,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9035,10 +9345,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9046,10 +9356,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9057,10 +9367,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9068,10 +9378,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9079,10 +9389,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>535</v>
+        <v>411</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9090,10 +9400,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -9101,10 +9411,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>543</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9112,7 +9422,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -9123,10 +9433,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>441</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -9134,10 +9444,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -9145,10 +9455,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -9156,10 +9466,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>540</v>
+        <v>58</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -9167,10 +9477,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -9178,10 +9488,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -9189,10 +9499,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -9200,10 +9510,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>437</v>
+        <v>550</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -9211,10 +9521,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -9222,10 +9532,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -9233,10 +9543,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -9244,10 +9554,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -9255,10 +9565,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -9266,10 +9576,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -9277,10 +9587,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>557</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -9288,10 +9598,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -9299,10 +9609,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -9310,10 +9620,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -9321,10 +9631,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -9332,7 +9642,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -9343,7 +9653,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -9354,7 +9664,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -9365,7 +9675,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -9376,7 +9686,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -9387,10 +9697,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -9398,10 +9708,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -9409,10 +9719,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -9420,10 +9730,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -9431,10 +9741,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -9442,10 +9752,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -9453,10 +9763,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -9464,10 +9774,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -9475,10 +9785,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -9486,10 +9796,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -9497,10 +9807,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -9508,10 +9818,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -9519,10 +9829,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -9530,10 +9840,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -9541,10 +9851,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9552,7 +9862,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -9563,7 +9873,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -9574,10 +9884,10 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9585,10 +9895,10 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9596,10 +9906,10 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9607,10 +9917,10 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9618,10 +9928,10 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9629,10 +9939,10 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9640,10 +9950,10 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9651,7 +9961,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9662,7 +9972,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -9673,7 +9983,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -9684,7 +9994,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -9695,7 +10005,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -9706,7 +10016,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -9717,7 +10027,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9728,7 +10038,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9739,7 +10049,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9750,7 +10060,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9761,7 +10071,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9772,7 +10082,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -9783,10 +10093,10 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9794,7 +10104,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9805,7 +10115,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9816,7 +10126,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9827,7 +10137,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9838,7 +10148,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9849,7 +10159,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9860,7 +10170,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9871,7 +10181,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9882,7 +10192,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9893,7 +10203,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9904,7 +10214,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9915,7 +10225,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9926,7 +10236,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9937,7 +10247,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9948,7 +10258,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9959,7 +10269,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9970,7 +10280,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9981,7 +10291,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10016,7 +10326,1461 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>147</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>624</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>627</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>628</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>629</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>630</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>631</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>632</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>633</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>523</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>634</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>533</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>635</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>636</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>637</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>638</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>639</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>640</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>641</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>642</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>643</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>644</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>645</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>646</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>647</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>648</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>649</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>650</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>549</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>651</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>652</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>653</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>654</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>655</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>656</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>657</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>658</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>659</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>660</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>661</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>662</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>663</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>664</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>665</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>666</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>667</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>668</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>669</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>670</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>671</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>672</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>673</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>674</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>675</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>676</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>677</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>678</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>679</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>680</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>681</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>682</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>683</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>685</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>686</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>687</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>688</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>689</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>690</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>691</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>692</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>693</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>694</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>695</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>696</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>697</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>698</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>699</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>700</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>701</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>702</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>703</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>704</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>705</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>706</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>707</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>708</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>709</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>710</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>711</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>712</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>713</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>714</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>715</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>716</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>717</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>718</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>719</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>720</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>621</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -10027,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -10038,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -10049,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>518</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -10093,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>614</v>
+        <v>721</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -10104,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -10115,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>616</v>
+        <v>723</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -10126,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -10137,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>724</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -10148,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>618</v>
+        <v>725</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -10159,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>726</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -10170,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>727</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -10181,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>621</v>
+        <v>728</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -10192,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>622</v>
+        <v>729</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -10214,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>623</v>
+        <v>730</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -10225,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -10236,7 +12000,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>624</v>
+        <v>427</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -10247,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -10258,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>625</v>
+        <v>731</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -10269,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -10280,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -10291,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>627</v>
+        <v>733</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -10313,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>628</v>
+        <v>734</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -10324,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -10335,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>629</v>
+        <v>399</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -10346,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>630</v>
+        <v>735</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -10357,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>631</v>
+        <v>413</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -10368,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>632</v>
+        <v>736</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -10379,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>633</v>
+        <v>737</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -10401,7 +12165,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>634</v>
+        <v>738</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -10412,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>635</v>
+        <v>739</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -10423,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>636</v>
+        <v>740</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -10434,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>637</v>
+        <v>741</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -10445,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>638</v>
+        <v>742</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -10467,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>639</v>
+        <v>743</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -10489,7 +12253,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>640</v>
+        <v>744</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -10511,7 +12275,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>641</v>
+        <v>745</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -10522,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>642</v>
+        <v>746</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -10533,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>643</v>
+        <v>747</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -10544,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -10555,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -10577,7 +12341,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>646</v>
+        <v>750</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -10588,7 +12352,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -10599,7 +12363,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -10610,7 +12374,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -10621,7 +12385,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>649</v>
+        <v>753</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -10632,7 +12396,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>650</v>
+        <v>754</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -10643,7 +12407,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>651</v>
+        <v>755</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -10654,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>652</v>
+        <v>756</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -10676,7 +12440,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>653</v>
+        <v>757</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -10687,7 +12451,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>654</v>
+        <v>758</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -10698,7 +12462,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>655</v>
+        <v>759</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -10709,7 +12473,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>656</v>
+        <v>443</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -10720,7 +12484,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>657</v>
+        <v>760</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -10731,7 +12495,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>658</v>
+        <v>761</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -10742,7 +12506,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>659</v>
+        <v>762</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -10753,7 +12517,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>660</v>
+        <v>763</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -10764,7 +12528,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>661</v>
+        <v>764</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -10775,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>662</v>
+        <v>765</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -10786,7 +12550,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>663</v>
+        <v>766</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -10797,7 +12561,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>664</v>
+        <v>767</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -10808,7 +12572,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>665</v>
+        <v>768</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -10819,7 +12583,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>666</v>
+        <v>769</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -10830,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>667</v>
+        <v>770</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -10841,7 +12605,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>668</v>
+        <v>771</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -10852,7 +12616,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>669</v>
+        <v>772</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -10863,7 +12627,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -10874,7 +12638,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>671</v>
+        <v>774</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -10885,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>672</v>
+        <v>775</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -10896,7 +12660,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>673</v>
+        <v>776</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -10907,7 +12671,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>674</v>
+        <v>777</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -10918,7 +12682,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -10929,7 +12693,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -10940,7 +12704,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>677</v>
+        <v>780</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -10951,7 +12715,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>678</v>
+        <v>781</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -10962,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>679</v>
+        <v>782</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -10973,7 +12737,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>680</v>
+        <v>783</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -10984,7 +12748,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>681</v>
+        <v>784</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -10995,7 +12759,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>682</v>
+        <v>785</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -11006,7 +12770,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -11017,7 +12781,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -11028,7 +12792,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>685</v>
+        <v>788</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -11039,7 +12803,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>686</v>
+        <v>789</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -11050,7 +12814,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>687</v>
+        <v>790</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -11061,7 +12825,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>688</v>
+        <v>791</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -11072,7 +12836,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>689</v>
+        <v>792</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -11083,7 +12847,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>690</v>
+        <v>793</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -11094,7 +12858,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>691</v>
+        <v>794</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -11105,7 +12869,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>692</v>
+        <v>795</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -11116,7 +12880,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>693</v>
+        <v>796</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -11127,7 +12891,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>694</v>
+        <v>797</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -11138,7 +12902,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>695</v>
+        <v>798</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -11149,7 +12913,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>696</v>
+        <v>799</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -11160,7 +12924,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -11171,7 +12935,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -11182,7 +12946,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>699</v>
+        <v>802</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -11193,7 +12957,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>700</v>
+        <v>803</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -11204,7 +12968,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>701</v>
+        <v>804</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -11215,7 +12979,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>702</v>
+        <v>805</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -11226,7 +12990,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>703</v>
+        <v>806</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -11237,7 +13001,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -11248,7 +13012,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>705</v>
+        <v>808</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -11259,7 +13023,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>706</v>
+        <v>809</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -11270,7 +13034,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>707</v>
+        <v>810</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -11281,7 +13045,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>708</v>
+        <v>811</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -11292,7 +13056,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>709</v>
+        <v>812</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -11303,7 +13067,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>710</v>
+        <v>813</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -11314,7 +13078,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>711</v>
+        <v>814</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -11325,7 +13089,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>712</v>
+        <v>815</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -11336,7 +13100,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>713</v>
+        <v>816</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -11347,7 +13111,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>714</v>
+        <v>817</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -11358,7 +13122,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>715</v>
+        <v>818</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -11369,7 +13133,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>716</v>
+        <v>819</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -11380,7 +13144,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>717</v>
+        <v>820</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -11391,7 +13155,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>718</v>
+        <v>821</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -11402,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>719</v>
+        <v>822</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -11413,7 +13177,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>720</v>
+        <v>823</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -11424,7 +13188,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -11435,7 +13199,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>722</v>
+        <v>825</v>
       </c>
       <c r="C131">
         <v>2</v>
